--- a/deploy/color.xlsx
+++ b/deploy/color.xlsx
@@ -734,9 +734,7 @@
       <c r="E12" s="3">
         <v>0.81221200000000005</v>
       </c>
-      <c r="G12" s="2">
-        <v>0.37469799999999998</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
